--- a/Estimation.WebApi/Forms/DescriptionOfEstimation_NetForm.xlsx
+++ b/Estimation.WebApi/Forms/DescriptionOfEstimation_NetForm.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mattanapol.K\source\repos\EstimationServer\Estimation.WebApi\Forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mattanapol.K\Source\Repos\EstimationServer\Estimation.WebApi\Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{50175768-2C3A-4724-BABB-34D7E60865B6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="Description" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Summary!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Description!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -140,7 +141,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -832,7 +833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
